--- a/0-Update/Templates/FUN_XepLop_DanhSachLopHoc.xlsx
+++ b/0-Update/Templates/FUN_XepLop_DanhSachLopHoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\0_QuanLyHocVien\O2S_QuanLyHocVien\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\O2S_QuanLyHocVien\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="465" windowWidth="27735" windowHeight="17535" tabRatio="500"/>
+    <workbookView xWindow="1065" yWindow="465" windowWidth="27735" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BCHN" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NgayGhiDanh</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].MAKHOAHOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].MALOPHOC</t>
+  </si>
+  <si>
+    <t>Người Lập Biểu</t>
+  </si>
+  <si>
+    <t>Giám Đốc Trung Tâm</t>
+  </si>
+  <si>
+    <t>Giáo Viên</t>
   </si>
 </sst>
 </file>
@@ -121,7 +136,7 @@
     <numFmt numFmtId="166" formatCode="hh:mm\ dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -133,70 +148,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -205,6 +158,32 @@
       <b/>
       <i/>
       <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -219,13 +198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,90 +237,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,159 +595,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="20.85546875" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="10"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="21" t="str">
+        <f>L2&amp;" - "&amp;O2</f>
+        <v>&amp;=[DATA].MAKHOAHOC - &amp;=[DATA].TENKHOAHOC</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="31" t="s">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="22" t="str">
+        <f>L3&amp;" - "&amp;O3</f>
+        <v>&amp;=[DATA].MALOPHOC - &amp;=[DATA].TENLOPHOC</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:15" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:15" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="12" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
